--- a/peak_fortresses.xlsx
+++ b/peak_fortresses.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Página1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -29,40 +34,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -89,22 +106,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -116,148 +193,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="1" width="4.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="1" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="8.862142857142858" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/peak_fortresses.xlsx
+++ b/peak_fortresses.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Página1"/>
+    <sheet name="Página1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,24 +46,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -355,21 +413,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="1" width="4.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col width="5.433571428571429" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="4.576428571428571" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="7.719285714285714" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B1" t="n">
+        <v>458</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>14:31:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>459</v>
+      </c>
+      <c r="B2" t="n">
+        <v>458</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:56:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>498</v>
+      </c>
+      <c r="B3" t="n">
+        <v>458</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:02:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>575</v>
+      </c>
+      <c r="B4" t="n">
+        <v>458</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>00:41:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>614</v>
+      </c>
+      <c r="B5" t="n">
+        <v>458</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00:49:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>653</v>
+      </c>
+      <c r="B6" t="n">
+        <v>458</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23:11:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>731</v>
+      </c>
+      <c r="B7" t="n">
+        <v>458</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>03:15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>770</v>
+      </c>
+      <c r="B8" t="n">
+        <v>458</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:15:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>809</v>
+      </c>
+      <c r="B9" t="n">
+        <v>458</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>02:58:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>400</v>
+      </c>
+      <c r="B10" t="n">
+        <v>477</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>23:27:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>439</v>
+      </c>
+      <c r="B11" t="n">
+        <v>477</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>23:21:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>478</v>
+      </c>
+      <c r="B12" t="n">
+        <v>477</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>23:03:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>517</v>
+      </c>
+      <c r="B13" t="n">
+        <v>477</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20:21:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>556</v>
+      </c>
+      <c r="B14" t="n">
+        <v>477</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>02:34:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>634</v>
+      </c>
+      <c r="B15" t="n">
+        <v>477</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14:29:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>673</v>
+      </c>
+      <c r="B16" t="n">
+        <v>477</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:00:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>751</v>
+      </c>
+      <c r="B17" t="n">
+        <v>477</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22:46:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>790</v>
+      </c>
+      <c r="B18" t="n">
+        <v>477</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>02:10:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>420</v>
+      </c>
+      <c r="B19" t="n">
+        <v>497</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:28:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>459</v>
+      </c>
+      <c r="B20" t="n">
+        <v>498</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:29:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>498</v>
+      </c>
+      <c r="B21" t="n">
+        <v>499</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>01:28:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>537</v>
+      </c>
+      <c r="B22" t="n">
+        <v>500</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:44:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>576</v>
+      </c>
+      <c r="B23" t="n">
+        <v>501</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>615</v>
+      </c>
+      <c r="B24" t="n">
+        <v>502</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>21:16:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>654</v>
+      </c>
+      <c r="B25" t="n">
+        <v>503</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>693</v>
+      </c>
+      <c r="B26" t="n">
+        <v>504</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>01:35:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>732</v>
+      </c>
+      <c r="B27" t="n">
+        <v>505</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13:42:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>771</v>
+      </c>
+      <c r="B28" t="n">
+        <v>506</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>19:29:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>654</v>
+      </c>
+      <c r="B29" t="n">
+        <v>537</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20:45:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>693</v>
+      </c>
+      <c r="B30" t="n">
+        <v>537</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14:22:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>732</v>
+      </c>
+      <c r="B31" t="n">
+        <v>537</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>771</v>
+      </c>
+      <c r="B32" t="n">
+        <v>537</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20:17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>477</v>
+      </c>
+      <c r="B33" t="n">
+        <v>556</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>23:24:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>555</v>
+      </c>
+      <c r="B34" t="n">
+        <v>556</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:05:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>594</v>
+      </c>
+      <c r="B35" t="n">
+        <v>556</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:08:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>633</v>
+      </c>
+      <c r="B36" t="n">
+        <v>556</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>21:47:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>672</v>
+      </c>
+      <c r="B37" t="n">
+        <v>556</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>03:05:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>750</v>
+      </c>
+      <c r="B38" t="n">
+        <v>556</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13:59:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>420</v>
+      </c>
+      <c r="B39" t="n">
+        <v>575</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>03:38:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>459</v>
+      </c>
+      <c r="B40" t="n">
+        <v>575</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>02:54:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>498</v>
+      </c>
+      <c r="B41" t="n">
+        <v>575</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>22:25:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>537</v>
+      </c>
+      <c r="B42" t="n">
+        <v>575</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>22:21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>576</v>
+      </c>
+      <c r="B43" t="n">
+        <v>575</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:07:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>615</v>
+      </c>
+      <c r="B44" t="n">
+        <v>575</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20:35:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>654</v>
+      </c>
+      <c r="B45" t="n">
+        <v>575</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>01:50:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>693</v>
+      </c>
+      <c r="B46" t="n">
+        <v>575</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>04:18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>771</v>
+      </c>
+      <c r="B47" t="n">
+        <v>575</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>00:47:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>810</v>
+      </c>
+      <c r="B48" t="n">
+        <v>575</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13:55:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>477</v>
+      </c>
+      <c r="B49" t="n">
+        <v>594</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>21:52:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>555</v>
+      </c>
+      <c r="B50" t="n">
+        <v>594</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>18:56:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>594</v>
+      </c>
+      <c r="B51" t="n">
+        <v>594</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>19:08:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>633</v>
+      </c>
+      <c r="B52" t="n">
+        <v>594</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>16:40:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>672</v>
+      </c>
+      <c r="B53" t="n">
+        <v>594</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>23:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>711</v>
+      </c>
+      <c r="B54" t="n">
+        <v>594</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>22:14:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>750</v>
+      </c>
+      <c r="B55" t="n">
+        <v>594</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>21:58:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>789</v>
+      </c>
+      <c r="B56" t="n">
+        <v>594</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>23:55:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>420</v>
+      </c>
+      <c r="B57" t="n">
+        <v>614</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>13:46:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>498</v>
+      </c>
+      <c r="B58" t="n">
+        <v>616</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>00:31:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>537</v>
+      </c>
+      <c r="B59" t="n">
+        <v>617</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>16:22:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>576</v>
+      </c>
+      <c r="B60" t="n">
+        <v>618</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>22:08:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>615</v>
+      </c>
+      <c r="B61" t="n">
+        <v>619</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>00:21:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>654</v>
+      </c>
+      <c r="B62" t="n">
+        <v>620</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>22:32:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>693</v>
+      </c>
+      <c r="B63" t="n">
+        <v>621</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>17:45:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>732</v>
+      </c>
+      <c r="B64" t="n">
+        <v>622</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>00:33:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>810</v>
+      </c>
+      <c r="B65" t="n">
+        <v>624</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>00:39:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>615</v>
+      </c>
+      <c r="B66" t="n">
+        <v>654</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>00:40:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>693</v>
+      </c>
+      <c r="B67" t="n">
+        <v>654</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>22:57:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>732</v>
+      </c>
+      <c r="B68" t="n">
+        <v>654</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>00:03:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>771</v>
+      </c>
+      <c r="B69" t="n">
+        <v>654</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>22:06:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>810</v>
+      </c>
+      <c r="B70" t="n">
+        <v>654</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>17:42:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>477</v>
+      </c>
+      <c r="B71" t="n">
+        <v>673</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>22:09:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>516</v>
+      </c>
+      <c r="B72" t="n">
+        <v>673</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>20:34:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>555</v>
+      </c>
+      <c r="B73" t="n">
+        <v>673</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>17:19:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>672</v>
+      </c>
+      <c r="B74" t="n">
+        <v>673</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>20:09:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>711</v>
+      </c>
+      <c r="B75" t="n">
+        <v>673</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>23:47:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>420</v>
+      </c>
+      <c r="B76" t="n">
+        <v>692</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>13:27:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>459</v>
+      </c>
+      <c r="B77" t="n">
+        <v>692</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>19:26:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>498</v>
+      </c>
+      <c r="B78" t="n">
+        <v>692</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>22:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>653</v>
+      </c>
+      <c r="B79" t="n">
+        <v>692</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>22:30:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>692</v>
+      </c>
+      <c r="B80" t="n">
+        <v>692</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>20:02:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>731</v>
+      </c>
+      <c r="B81" t="n">
+        <v>692</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>02:47:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>770</v>
+      </c>
+      <c r="B82" t="n">
+        <v>692</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>03:12:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>809</v>
+      </c>
+      <c r="B83" t="n">
+        <v>692</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>04:35:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>594</v>
+      </c>
+      <c r="B84" t="n">
+        <v>711</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>18:08:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>633</v>
+      </c>
+      <c r="B85" t="n">
+        <v>711</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>18:06:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>672</v>
+      </c>
+      <c r="B86" t="n">
+        <v>711</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>18:52:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>711</v>
+      </c>
+      <c r="B87" t="n">
+        <v>711</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>18:53:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>750</v>
+      </c>
+      <c r="B88" t="n">
+        <v>711</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>19:36:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>420</v>
+      </c>
+      <c r="B89" t="n">
+        <v>731</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>16:11:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>459</v>
+      </c>
+      <c r="B90" t="n">
+        <v>732</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>19:01:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>498</v>
+      </c>
+      <c r="B91" t="n">
+        <v>733</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>18:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>576</v>
+      </c>
+      <c r="B92" t="n">
+        <v>735</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>23:06:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>615</v>
+      </c>
+      <c r="B93" t="n">
+        <v>736</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>17:11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>654</v>
+      </c>
+      <c r="B94" t="n">
+        <v>737</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>13:28:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>693</v>
+      </c>
+      <c r="B95" t="n">
+        <v>738</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>14:38:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>732</v>
+      </c>
+      <c r="B96" t="n">
+        <v>739</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>00:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>594</v>
+      </c>
+      <c r="B97" t="n">
+        <v>751</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>21:54:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>633</v>
+      </c>
+      <c r="B98" t="n">
+        <v>751</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>13:31:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>672</v>
+      </c>
+      <c r="B99" t="n">
+        <v>751</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>19:44:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>711</v>
+      </c>
+      <c r="B100" t="n">
+        <v>751</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>17:19:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>750</v>
+      </c>
+      <c r="B101" t="n">
+        <v>751</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>18:53:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>459</v>
+      </c>
+      <c r="B102" t="n">
+        <v>770</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01:39:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>575</v>
+      </c>
+      <c r="B103" t="n">
+        <v>770</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>23:29:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>614</v>
+      </c>
+      <c r="B104" t="n">
+        <v>770</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>01:02:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>653</v>
+      </c>
+      <c r="B105" t="n">
+        <v>770</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>21:50:36</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>